--- a/Saida de Arquivos/Tabelas_log.xlsx
+++ b/Saida de Arquivos/Tabelas_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Otimizado</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Temp_MIN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Temp_MAX</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Delta max|min</t>
         </is>
@@ -485,13 +490,18 @@
       <c r="D2" t="n">
         <v>783</v>
       </c>
-      <c r="E2" t="n">
-        <v>4.458427429199219e-05</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Na/ </t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>2.741813659667969e-05</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -510,13 +520,18 @@
       <c r="D3" t="n">
         <v>1157</v>
       </c>
-      <c r="E3" t="n">
-        <v>9.965896606445312e-05</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Na/ </t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>3.838539123535156e-05</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -535,13 +550,18 @@
       <c r="D4" t="n">
         <v>767</v>
       </c>
-      <c r="E4" t="n">
-        <v>8.153915405273438e-05</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Na/ </t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>3.719329833984375e-05</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -560,13 +580,18 @@
       <c r="D5" t="n">
         <v>1568</v>
       </c>
-      <c r="E5" t="n">
-        <v>7.200241088867188e-05</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Na/ </t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>6.008148193359375e-05</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -585,13 +610,18 @@
       <c r="D6" t="n">
         <v>3315</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.003327608108520508</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Na/ </t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>0.003054380416870117</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,18 +635,23 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
+        <v>4691</v>
+      </c>
+      <c r="D7" t="n">
         <v>4657</v>
       </c>
-      <c r="D7" t="n">
-        <v>4691</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01356625556945801</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>0.01202583312988281</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -630,19 +665,24 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>6932</v>
+        <v>7742</v>
       </c>
       <c r="D8" t="n">
-        <v>7742</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.07225918769836426</v>
+        <v>6931</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0658106803894043</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>810</v>
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>811</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +695,24 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>9023</v>
+        <v>9332</v>
       </c>
       <c r="D9" t="n">
-        <v>9332</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2847564220428467</v>
+        <v>9022</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2610352039337158</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>309</v>
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +725,24 @@
         <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>13489</v>
+        <v>15560</v>
       </c>
       <c r="D10" t="n">
-        <v>15560</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.007218837738037</v>
+        <v>13493</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9388291835784912</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2071</v>
+        <v>0.03</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2067</v>
       </c>
     </row>
     <row r="11">
@@ -705,19 +755,24 @@
         <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>19501</v>
+        <v>20453</v>
       </c>
       <c r="D11" t="n">
-        <v>20519</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.90902042388916</v>
+        <v>19505</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>6.697658538818359</v>
+        <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1018</v>
+        <v>0.13</v>
+      </c>
+      <c r="H11" t="n">
+        <v>948</v>
       </c>
     </row>
     <row r="12">
@@ -730,19 +785,24 @@
         <v>102</v>
       </c>
       <c r="C12" t="n">
-        <v>26997</v>
+        <v>27401</v>
       </c>
       <c r="D12" t="n">
-        <v>27401</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.89421939849854</v>
+        <v>27012</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>27.68925666809082</v>
+        <v>0.29</v>
       </c>
       <c r="G12" t="n">
-        <v>404</v>
+        <v>0.36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="13">
@@ -755,19 +815,24 @@
         <v>143</v>
       </c>
       <c r="C13" t="n">
-        <v>37720</v>
+        <v>38960</v>
       </c>
       <c r="D13" t="n">
-        <v>38896</v>
-      </c>
-      <c r="E13" t="n">
-        <v>152.0968515872955</v>
+        <v>37715</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max </t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>153.106431722641</v>
+        <v>0.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1176</v>
+        <v>1.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>

--- a/Saida de Arquivos/Tabelas_log.xlsx
+++ b/Saida de Arquivos/Tabelas_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
         <v>0.01</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
         <v>310</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
         <v>0.03</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G12" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="H12" t="n">
         <v>389</v>
@@ -829,7 +829,7 @@
         <v>0.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="H13" t="n">
         <v>1245</v>

--- a/Saida de Arquivos/Tabelas_log.xlsx
+++ b/Saida de Arquivos/Tabelas_log.xlsx
@@ -739,7 +739,7 @@
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H10" t="n">
         <v>2067</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="H11" t="n">
         <v>948</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G12" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H12" t="n">
         <v>389</v>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H13" t="n">
         <v>1245</v>
